--- a/assets/Murdochs/Blank Murdochs 856 ASN.xlsx
+++ b/assets/Murdochs/Blank Murdochs 856 ASN.xlsx
@@ -115,7 +115,7 @@
     <t>C - Cartons or P - Pallets</t>
   </si>
   <si>
-    <t>Bill Of Lading #</t>
+    <t>PRO No</t>
   </si>
   <si>
     <t>Delivery Date</t>
@@ -177,7 +177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,20 +188,32 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
     <font>
@@ -211,14 +223,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -345,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -380,9 +386,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -398,7 +401,7 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -431,22 +434,19 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -769,17 +769,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="35" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="36" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="37" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="38" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="35" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="35" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="35" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="35" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="35" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="35" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="33" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="34" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="33" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="36" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="33" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="33" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="33" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="33" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="33" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="33" width="50.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -947,10 +947,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
@@ -958,7 +958,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
       <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1055,10 +1055,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1067,400 +1067,400 @@
       <c r="K16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="26"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="26"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="26"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="26"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="26"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="26"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="26"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="26"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="26"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="26"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="26"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="26"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="26"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="26"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="26"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="26"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="26"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="26"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="26"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="26"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="26"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="26"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="26"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
